--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,85 +43,121 @@
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>paid</t>
+    <t>junk</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>lasted</t>
@@ -130,154 +166,154 @@
     <t>worked</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>sent</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>looked</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>received</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>would</t>
+    <t>made</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>challenge</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>elf</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>strategy</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>helicopter</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
     <t>educational</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>positive</t>
@@ -638,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>0.90625</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.8924731182795699</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.970873786407767</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9623655913978495</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C7">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.8701298701298701</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9444444444444444</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.8615384615384616</v>
+        <v>0.859375</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1057,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9354838709677419</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.859375</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.8490566037735849</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.90625</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C12">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.8008298755186722</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>386</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>386</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8947368421052632</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,16 +1264,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.7925311203319502</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L13">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8888888888888888</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.7857142857142857</v>
+        <v>0.7833572453371592</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>546</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8688524590163934</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C15">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.7661406025824964</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L15">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>534</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.859375</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.7321428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8253968253968254</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.7096774193548387</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.7033639143730887</v>
+        <v>0.7003058103975535</v>
       </c>
       <c r="L18">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M18">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8151658767772512</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>0.6909090909090909</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,16 +1614,16 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.5795081967213115</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L20">
-        <v>707</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>707</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>513</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7831325301204819</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>0.5662650602409639</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L21">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7428571428571429</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K22">
-        <v>0.5403899721448467</v>
+        <v>0.5967213114754099</v>
       </c>
       <c r="L22">
-        <v>194</v>
+        <v>728</v>
       </c>
       <c r="M22">
-        <v>194</v>
+        <v>728</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>165</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7321428571428571</v>
+        <v>0.7819905213270142</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>0.5283018867924528</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7246376811594203</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K24">
-        <v>0.5217391304347826</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.703125</v>
+        <v>0.765625</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>0.5128205128205128</v>
+        <v>0.479108635097493</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>57</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6951219512195121</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>0.4714285714285714</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6907216494845361</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.4545454545454545</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6896551724137931</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>0.2833333333333333</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2043,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6756756756756757</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>0.2667099286177806</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="L29">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>0.1647677475898335</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L30">
-        <v>188</v>
+        <v>469</v>
       </c>
       <c r="M30">
-        <v>188</v>
+        <v>469</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>953</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2143,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6428571428571429</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,7 +2161,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="L31">
+        <v>56</v>
+      </c>
+      <c r="M31">
+        <v>56</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,13 +2193,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6111111111111112</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2151,21 +2211,45 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6041666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2177,21 +2261,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="L33">
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6028985507246377</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C34">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2203,21 +2311,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34">
+        <v>0.216</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.599009900990099</v>
+        <v>0.675</v>
       </c>
       <c r="C35">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2229,21 +2361,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35">
+        <v>0.2147239263803681</v>
+      </c>
+      <c r="L35">
+        <v>245</v>
+      </c>
+      <c r="M35">
+        <v>245</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5892857142857143</v>
+        <v>0.671875</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2255,21 +2411,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5714285714285714</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2281,21 +2461,45 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5221518987341772</v>
+        <v>0.6492753623188405</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="D38">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2307,21 +2511,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5111111111111111</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2333,21 +2537,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5042016806722689</v>
+        <v>0.5891089108910891</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2359,21 +2563,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.492063492063492</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2385,21 +2589,21 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4897959183673469</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2411,21 +2615,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4054054054054054</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2437,21 +2641,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2463,21 +2667,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2826086956521739</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C45">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D45">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2489,21 +2693,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2790697674418605</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2515,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2341772151898734</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C47">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2541,21 +2745,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.145</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2567,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>171</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2575,13 +2779,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1403508771929824</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2593,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>147</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2601,13 +2805,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1366120218579235</v>
+        <v>0.29</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2619,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2627,13 +2831,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0947136563876652</v>
+        <v>0.286231884057971</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2645,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>411</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2653,13 +2857,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.0549618320610687</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C52">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2671,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>619</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2679,13 +2883,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.05192878338278932</v>
+        <v>0.1796875</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2697,7 +2901,137 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>639</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.145374449339207</v>
+      </c>
+      <c r="C55">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>66</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.1364985163204748</v>
+      </c>
+      <c r="C56">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>92</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.09618320610687023</v>
+      </c>
+      <c r="C57">
+        <v>63</v>
+      </c>
+      <c r="D57">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.08517350157728706</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
